--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F209B319-8B8B-B546-93C1-46B09FBDFDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E2954-0B57-1640-8496-5D1B883A2E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="-25420" windowWidth="29180" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
+    <workbookView xWindow="13520" yWindow="-27880" windowWidth="29180" windowHeight="23120" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,9 +45,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>figure</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -74,90 +73,60 @@
     <t>https://www.chinatimes.com/realtimenews/?page=3&amp;chdtv</t>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
     <t>EBC-東森新聞</t>
   </si>
   <si>
     <t>https://news.ebc.net.tw/</t>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
     <t>TVBS-新聞網</t>
   </si>
   <si>
     <t>https://news.tvbs.com.tw/</t>
   </si>
   <si>
-    <t>005</t>
-  </si>
-  <si>
     <t>Yahoo-奇摩新聞</t>
   </si>
   <si>
     <t>https://tw.news.yahoo.com/</t>
   </si>
   <si>
-    <t>006</t>
-  </si>
-  <si>
     <t>Apple-頻果日報</t>
   </si>
   <si>
     <t>https://tw.appledaily.com/home/</t>
   </si>
   <si>
-    <t>007</t>
-  </si>
-  <si>
     <t>LTN-自由時報</t>
   </si>
   <si>
     <t>https://www.ltn.com.tw/</t>
   </si>
   <si>
-    <t>008</t>
-  </si>
-  <si>
     <t>SETN 三立新聞</t>
   </si>
   <si>
     <t>https://www.setn.com/</t>
   </si>
   <si>
-    <t>009</t>
-  </si>
-  <si>
     <t>NowNews-今日新聞</t>
   </si>
   <si>
     <t>https://www.nownews.com/</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>TheStormMedia-風傳媒</t>
   </si>
   <si>
     <t>https://www.storm.mg/articles</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
     <t>ETtoday-新聞雲</t>
   </si>
   <si>
     <t>https://www.ettoday.net/news/focus/%E7%84%A6%E9%BB%9E%E6%96%B0%E8%81%9E/</t>
   </si>
   <si>
-    <t>012</t>
-  </si>
-  <si>
     <t>CCTV-央視網新聞</t>
   </si>
   <si>
@@ -167,45 +136,30 @@
     <t>大陸新聞</t>
   </si>
   <si>
-    <t>013</t>
-  </si>
-  <si>
     <t>WorldJournal-世界日報</t>
   </si>
   <si>
     <t>https://www.worldjournal.com/category/%E8%A6%81%E8%81%9E/</t>
   </si>
   <si>
-    <t>014</t>
-  </si>
-  <si>
     <t>SingTao-星島日報</t>
   </si>
   <si>
     <t>https://std.stheadline.com/realtime/%E5%8D%B3%E6%99%82</t>
   </si>
   <si>
-    <t>015</t>
-  </si>
-  <si>
     <t>MingPao-明報新聞網</t>
   </si>
   <si>
     <t>https://news.mingpao.com/pns/%E6%98%8E%E5%A0%B1%E6%96%B0%E8%81%9E%E7%B6%B2/main</t>
   </si>
   <si>
-    <t>016</t>
-  </si>
-  <si>
     <t>今日頭條</t>
   </si>
   <si>
     <t>https://www.toutiao.com/</t>
   </si>
   <si>
-    <t>017</t>
-  </si>
-  <si>
     <t>CNA-國際通訊社</t>
   </si>
   <si>
@@ -215,63 +169,42 @@
     <t>國際新聞</t>
   </si>
   <si>
-    <t>018</t>
-  </si>
-  <si>
     <t>BBC-英國新聞網</t>
   </si>
   <si>
     <t>https://www.bbc.com/zhongwen/trad/world</t>
   </si>
   <si>
-    <t>019</t>
-  </si>
-  <si>
     <t>CNN</t>
   </si>
   <si>
     <t>https://edition.cnn.com/</t>
   </si>
   <si>
-    <t>020</t>
-  </si>
-  <si>
     <t>DW-德國新聞網</t>
   </si>
   <si>
     <t>https://www.dw.com/zh/%E5%9C%A8%E7%BA%BF%E6%8A%A5%E5%AF%BC/s-9058</t>
   </si>
   <si>
-    <t>021</t>
-  </si>
-  <si>
     <t>Aljazeera-半島電視</t>
   </si>
   <si>
     <t>https://www.aljazeera.com/</t>
   </si>
   <si>
-    <t>022</t>
-  </si>
-  <si>
     <t>RT-俄羅斯新聞</t>
   </si>
   <si>
     <t>https://www.rt.com/news/</t>
   </si>
   <si>
-    <t>023</t>
-  </si>
-  <si>
     <t>France24-法國新聞網</t>
   </si>
   <si>
     <t>https://www.france24.com/fr/</t>
   </si>
   <si>
-    <t>024</t>
-  </si>
-  <si>
     <t>天下雜誌</t>
   </si>
   <si>
@@ -281,36 +214,24 @@
     <t>雜誌-新聞時事</t>
   </si>
   <si>
-    <t>025</t>
-  </si>
-  <si>
     <t>遠見雜誌</t>
   </si>
   <si>
     <t>https://www.gvm.com.tw/</t>
   </si>
   <si>
-    <t>026</t>
-  </si>
-  <si>
     <t>鏡週刊</t>
   </si>
   <si>
     <t>https://www.mirrormedia.mg/</t>
   </si>
   <si>
-    <t>027</t>
-  </si>
-  <si>
     <t>新新聞</t>
   </si>
   <si>
     <t>https://www.storm.mg/category/87726</t>
   </si>
   <si>
-    <t>028</t>
-  </si>
-  <si>
     <t>商業週刊</t>
   </si>
   <si>
@@ -320,18 +241,12 @@
     <t>雜誌-財經股市</t>
   </si>
   <si>
-    <t>029</t>
-  </si>
-  <si>
     <t>今周刊</t>
   </si>
   <si>
     <t>https://www.businesstoday.com.tw/</t>
   </si>
   <si>
-    <t>030</t>
-  </si>
-  <si>
     <t>理財周刊</t>
   </si>
   <si>
@@ -346,9 +261,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>031</t>
-  </si>
-  <si>
     <t>數位時代</t>
   </si>
   <si>
@@ -358,114 +270,42 @@
     <t>雜誌-科技健康</t>
   </si>
   <si>
-    <t>032</t>
-  </si>
-  <si>
     <t>康健雜誌</t>
   </si>
   <si>
     <t>https://www.commonhealth.com.tw/</t>
   </si>
   <si>
-    <t>033</t>
-  </si>
-  <si>
     <t>桃園市圖書館</t>
   </si>
   <si>
     <t>雜誌-電子書庫</t>
   </si>
   <si>
-    <t>034</t>
-  </si>
-  <si>
     <t>Kono Magazine</t>
   </si>
   <si>
     <t>https://www.thekono.com/</t>
   </si>
   <si>
-    <t>035</t>
-  </si>
-  <si>
     <t>Zinio</t>
   </si>
   <si>
     <t>https://www.zinio.com/tw-zh</t>
   </si>
   <si>
-    <t>036</t>
-  </si>
-  <si>
     <t>Pubu 飽讀電子書</t>
   </si>
   <si>
     <t>https://www.pubu.com.tw/bookbuffet</t>
   </si>
   <si>
-    <t>037</t>
-  </si>
-  <si>
     <t>台灣雲端書庫</t>
   </si>
   <si>
     <t>https://www.ebookservice.tw/</t>
   </si>
   <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
     <t>台視新聞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -473,9 +313,6 @@
     <t>https://www.youtube.com/user/ttvnewsview</t>
   </si>
   <si>
-    <t>057</t>
-  </si>
-  <si>
     <t>中視新聞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -483,9 +320,6 @@
     <t>https://www.youtube.com/user/chinatvnews</t>
   </si>
   <si>
-    <t>058</t>
-  </si>
-  <si>
     <t>華視新聞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -493,9 +327,6 @@
     <t>https://www.youtube.com/user/TBSCTS</t>
   </si>
   <si>
-    <t>059</t>
-  </si>
-  <si>
     <t>先探i投資</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -512,147 +343,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/AiCity-923-中天新聞.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-聯合新聞網.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-中時電子報.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-東森新聞.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-TVBS.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-Yahoo.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-Apple.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-自由時報.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-三立新聞.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-今日新聞.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-風傳媒.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-ETtoday.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-CCTV.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-世界日報.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-星島日報.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-明報.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-今日頭條.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-中央通訊社.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-BBC.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-CNN.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-DW.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-半島電視.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-RT.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-France24.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-天下雜誌.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-遠見雜誌.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-鏡週刊.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-新新聞.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-商業週刊.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-今周刊.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-理財週刊.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-數位時代.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-康健雜誌.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-桃園市圖書館.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-kono.png</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-Zinio.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-Pubu.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-台灣雲端書庫.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-923-台視新聞.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-923-中視新聞.jpg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-923-華視新聞.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-先探.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/AiCity-919-財訊.jpeg</t>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/INV-3013-Magazine-Money錢.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>菱傳媒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/AiCity-919-菱傳媒.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://rwnews.tw/</t>
   </si>
   <si>
@@ -664,10 +358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/AiCity-919-北健活力.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園人ㄟ新聞網</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -675,10 +365,6 @@
     <t>https://twainews.com/</t>
   </si>
   <si>
-    <t>fig/XLK-1401-News/AiCity-919-桃園.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>file</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -687,17 +373,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>055</t>
-  </si>
-  <si>
     <t>TradingView</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-TradingView.jpeg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.tradingview.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -710,9 +389,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-鉅亨基金.png</t>
-  </si>
-  <si>
     <t>https://www.anuefund.com/</t>
   </si>
   <si>
@@ -720,9 +396,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-理財網.jpeg</t>
-  </si>
-  <si>
     <t>https://www.moneydj.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -731,18 +404,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-yahoo.png</t>
-  </si>
-  <si>
     <t>https://finance.yahoo.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>台灣股市資訊網 Goodinfo!</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-台灣股市資訊網.jpeg</t>
   </si>
   <si>
     <t>https://goodinfo.tw/StockInfo/index.asp</t>
@@ -773,9 +440,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-CMoney.jpeg</t>
-  </si>
-  <si>
     <t>https://www.cmoney.tw/app/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -784,9 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-Morningstar.png</t>
-  </si>
-  <si>
     <t>https://www.morningstar.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -795,10 +456,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-Finviz.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.fXLK-1401-News/INViz.com/</t>
   </si>
   <si>
@@ -806,9 +463,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-Dividendcom.png</t>
-  </si>
-  <si>
     <t>https://www.dividend.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -817,9 +471,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-Jitta.png</t>
-  </si>
-  <si>
     <t>https://www.jitta.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -828,9 +479,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-ETFcom.png</t>
-  </si>
-  <si>
     <t>https://www.etf.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -839,9 +487,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/INV-3012-Stock-ETFdb.png</t>
-  </si>
-  <si>
     <t>https://etfdb.com/</t>
   </si>
   <si>
@@ -861,12 +506,381 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>figure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>502</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>602</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>702</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>802</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>news-101.png</t>
+  </si>
+  <si>
+    <t>news-102.png</t>
+  </si>
+  <si>
+    <t>news-103.png</t>
+  </si>
+  <si>
+    <t>news-104.png</t>
+  </si>
+  <si>
+    <t>news-105.png</t>
+  </si>
+  <si>
+    <t>news-106.png</t>
+  </si>
+  <si>
+    <t>news-107.png</t>
+  </si>
+  <si>
+    <t>news-108.png</t>
+  </si>
+  <si>
+    <t>news-109.png</t>
+  </si>
+  <si>
+    <t>news-110.png</t>
+  </si>
+  <si>
+    <t>news-111.png</t>
+  </si>
+  <si>
+    <t>news-112.png</t>
+  </si>
+  <si>
+    <t>news-113.png</t>
+  </si>
+  <si>
+    <t>news-114.png</t>
+  </si>
+  <si>
+    <t>news-115.png</t>
+  </si>
+  <si>
+    <t>news-116.png</t>
+  </si>
+  <si>
+    <t>news-117.png</t>
+  </si>
+  <si>
+    <t>news-118.png</t>
+  </si>
+  <si>
+    <t>news-201.png</t>
+  </si>
+  <si>
+    <t>news-202.png</t>
+  </si>
+  <si>
+    <t>news-203.png</t>
+  </si>
+  <si>
+    <t>news-204.png</t>
+  </si>
+  <si>
+    <t>news-205.png</t>
+  </si>
+  <si>
+    <t>news-301.png</t>
+  </si>
+  <si>
+    <t>news-302.png</t>
+  </si>
+  <si>
+    <t>news-303.png</t>
+  </si>
+  <si>
+    <t>news-304.png</t>
+  </si>
+  <si>
+    <t>news-305.png</t>
+  </si>
+  <si>
+    <t>news-306.png</t>
+  </si>
+  <si>
+    <t>news-307.png</t>
+  </si>
+  <si>
+    <t>news-401.png</t>
+  </si>
+  <si>
+    <t>news-402.png</t>
+  </si>
+  <si>
+    <t>news-403.png</t>
+  </si>
+  <si>
+    <t>news-404.png</t>
+  </si>
+  <si>
+    <t>news-501.png</t>
+  </si>
+  <si>
+    <t>news-502.png</t>
+  </si>
+  <si>
+    <t>news-503.png</t>
+  </si>
+  <si>
+    <t>news-504.png</t>
+  </si>
+  <si>
+    <t>news-505.png</t>
+  </si>
+  <si>
+    <t>news-506.png</t>
+  </si>
+  <si>
+    <t>news-601.png</t>
+  </si>
+  <si>
+    <t>news-602.png</t>
+  </si>
+  <si>
+    <t>news-701.png</t>
+  </si>
+  <si>
+    <t>news-702.png</t>
+  </si>
+  <si>
+    <t>news-703.png</t>
+  </si>
+  <si>
+    <t>news-704.png</t>
+  </si>
+  <si>
+    <t>news-705.png</t>
+  </si>
+  <si>
+    <t>news-801.png</t>
+  </si>
+  <si>
+    <t>news-802.png</t>
+  </si>
+  <si>
+    <t>news-803.png</t>
+  </si>
+  <si>
+    <t>news-804.png</t>
+  </si>
+  <si>
+    <t>news-805.png</t>
+  </si>
+  <si>
+    <t>news-806.png</t>
+  </si>
+  <si>
+    <t>news-807.png</t>
+  </si>
+  <si>
+    <t>news-808.png</t>
+  </si>
+  <si>
+    <t>news-809.png</t>
+  </si>
+  <si>
+    <t>news-810.png</t>
+  </si>
+  <si>
+    <t>news-811.png</t>
+  </si>
+  <si>
+    <t>news-812.png</t>
   </si>
 </sst>
 </file>
@@ -1280,14 +1294,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD216"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="34.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="85.33203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="19.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
@@ -1302,1377 +1316,1377 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E2954-0B57-1640-8496-5D1B883A2E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591FDF4-38D8-C54C-B2BF-245C4E542D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="-27880" windowWidth="29180" windowHeight="23120" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
+    <workbookView xWindow="1660" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="271">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -881,6 +881,70 @@
   </si>
   <si>
     <t>news-812.png</t>
+  </si>
+  <si>
+    <t>部落格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>902</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>news-901.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>news-902.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>news-903.png</t>
+  </si>
+  <si>
+    <t>news-904.png</t>
+  </si>
+  <si>
+    <t>https://www.pixnet.net/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vocus.cc/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方格子 Vocus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://medium.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痞客邦 Pixnet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://substack.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1290,11 +1354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991D6833-3C43-A045-AD0E-AAC76CF66741}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1333,19 +1397,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>259</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>133</v>
@@ -1356,19 +1420,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>133</v>
@@ -1379,19 +1443,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>261</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>133</v>
@@ -1402,19 +1466,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>262</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>133</v>
@@ -1425,16 +1489,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -1448,16 +1512,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -1471,16 +1535,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -1494,16 +1558,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -1517,16 +1581,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -1540,16 +1604,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -1563,16 +1627,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>6</v>
@@ -1586,16 +1650,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -1609,16 +1673,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>6</v>
@@ -1632,16 +1696,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
@@ -1655,16 +1719,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>6</v>
@@ -1678,16 +1742,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
@@ -1701,16 +1765,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
@@ -1724,16 +1788,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>6</v>
@@ -1747,19 +1811,19 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>133</v>
@@ -1770,19 +1834,19 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>133</v>
@@ -1793,19 +1857,19 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>133</v>
@@ -1816,19 +1880,19 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>133</v>
@@ -1837,18 +1901,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -1859,23 +1923,22 @@
       <c r="G24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>133</v>
@@ -1886,19 +1949,19 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>133</v>
@@ -1909,19 +1972,19 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>133</v>
@@ -1930,21 +1993,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="16">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>133</v>
@@ -1952,19 +2015,20 @@
       <c r="G28" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>42</v>
@@ -1978,16 +2042,16 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>42</v>
@@ -2001,16 +2065,16 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>42</v>
@@ -2024,19 +2088,19 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>133</v>
@@ -2047,19 +2111,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>133</v>
@@ -2070,19 +2134,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>133</v>
@@ -2093,19 +2157,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>133</v>
@@ -2116,19 +2180,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>133</v>
@@ -2139,19 +2203,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>133</v>
@@ -2162,19 +2226,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>133</v>
@@ -2185,19 +2249,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>72</v>
+        <v>228</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>133</v>
@@ -2208,16 +2272,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>95</v>
+        <v>229</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>66</v>
@@ -2231,16 +2295,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>97</v>
+        <v>230</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>66</v>
@@ -2254,19 +2318,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>133</v>
@@ -2277,19 +2341,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>232</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>133</v>
@@ -2300,19 +2364,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>134</v>
+        <v>233</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>133</v>
@@ -2323,19 +2387,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>234</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>133</v>
@@ -2346,19 +2410,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>133</v>
@@ -2369,19 +2433,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>133</v>
@@ -2392,16 +2456,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>237</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>79</v>
@@ -2415,108 +2479,108 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>107</v>
+        <v>238</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>112</v>
+        <v>240</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>114</v>
+        <v>241</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>108</v>
@@ -2528,18 +2592,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>117</v>
+        <v>183</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>118</v>
+        <v>243</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>108</v>
@@ -2553,16 +2617,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>108</v>
@@ -2576,16 +2640,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>108</v>
@@ -2599,16 +2663,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>108</v>
@@ -2620,18 +2684,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>188</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>108</v>
@@ -2645,16 +2709,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>108</v>
@@ -2668,16 +2732,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>249</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>108</v>
@@ -2686,32 +2750,128 @@
         <v>133</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:E60" xr:uid="{5D62F5CD-6D72-1A4E-B85F-5E49AD95AD8D}">
-      <formula1>$E$2:$E$23</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E64" xr:uid="{5D62F5CD-6D72-1A4E-B85F-5E49AD95AD8D}">
+      <formula1>$E$6:$E$27</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" xr:uid="{BE4A2383-EA91-CF4A-890A-36A2313C408C}"/>
-    <hyperlink ref="D40" r:id="rId2" xr:uid="{D6DFF82E-785B-2C48-84F5-981B0003F24B}"/>
-    <hyperlink ref="D41" r:id="rId3" xr:uid="{83EBB462-1982-3C46-BFB6-3F375B108289}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{861F0DEE-B540-E141-92C1-2DB0D0AE84CC}"/>
-    <hyperlink ref="D51" r:id="rId5" xr:uid="{F1724E9F-05A6-7044-9066-1FE62E30864E}"/>
-    <hyperlink ref="D55" r:id="rId6" xr:uid="{AA0B3E88-F106-3D44-B11E-62BCF5CCEC88}"/>
-    <hyperlink ref="D53" r:id="rId7" xr:uid="{5E6B29CF-9972-8740-922D-3BFD282CDA99}"/>
-    <hyperlink ref="D59" r:id="rId8" xr:uid="{674E1153-3732-8346-8C8C-9A8DC902825E}"/>
-    <hyperlink ref="D57" r:id="rId9" xr:uid="{743E84F0-98DC-2745-8529-2AE904B416D6}"/>
-    <hyperlink ref="D56" r:id="rId10" display="https://www.finviz.com/" xr:uid="{D9C78995-B075-F84F-AFB2-396086D381E1}"/>
-    <hyperlink ref="D52" r:id="rId11" xr:uid="{3B61B7F5-3967-2844-88B7-62B42D79F5E1}"/>
-    <hyperlink ref="D58" r:id="rId12" xr:uid="{B6F3D4C4-B26E-234B-B8B7-C7E653A91D22}"/>
-    <hyperlink ref="D54" r:id="rId13" xr:uid="{DE547824-1D02-D94C-96A5-DCD0F717828B}"/>
-    <hyperlink ref="D49" r:id="rId14" xr:uid="{CC4FD76F-35BF-6544-8544-B929BBBAA747}"/>
-    <hyperlink ref="D44" r:id="rId15" xr:uid="{C5C3A334-54A6-104C-B7C7-EA0C433EEF21}"/>
+    <hyperlink ref="D43" r:id="rId1" xr:uid="{BE4A2383-EA91-CF4A-890A-36A2313C408C}"/>
+    <hyperlink ref="D44" r:id="rId2" xr:uid="{D6DFF82E-785B-2C48-84F5-981B0003F24B}"/>
+    <hyperlink ref="D45" r:id="rId3" xr:uid="{83EBB462-1982-3C46-BFB6-3F375B108289}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{861F0DEE-B540-E141-92C1-2DB0D0AE84CC}"/>
+    <hyperlink ref="D55" r:id="rId5" xr:uid="{F1724E9F-05A6-7044-9066-1FE62E30864E}"/>
+    <hyperlink ref="D59" r:id="rId6" xr:uid="{AA0B3E88-F106-3D44-B11E-62BCF5CCEC88}"/>
+    <hyperlink ref="D57" r:id="rId7" xr:uid="{5E6B29CF-9972-8740-922D-3BFD282CDA99}"/>
+    <hyperlink ref="D63" r:id="rId8" xr:uid="{674E1153-3732-8346-8C8C-9A8DC902825E}"/>
+    <hyperlink ref="D61" r:id="rId9" xr:uid="{743E84F0-98DC-2745-8529-2AE904B416D6}"/>
+    <hyperlink ref="D60" r:id="rId10" display="https://www.finviz.com/" xr:uid="{D9C78995-B075-F84F-AFB2-396086D381E1}"/>
+    <hyperlink ref="D56" r:id="rId11" xr:uid="{3B61B7F5-3967-2844-88B7-62B42D79F5E1}"/>
+    <hyperlink ref="D62" r:id="rId12" xr:uid="{B6F3D4C4-B26E-234B-B8B7-C7E653A91D22}"/>
+    <hyperlink ref="D58" r:id="rId13" xr:uid="{DE547824-1D02-D94C-96A5-DCD0F717828B}"/>
+    <hyperlink ref="D53" r:id="rId14" xr:uid="{CC4FD76F-35BF-6544-8544-B929BBBAA747}"/>
+    <hyperlink ref="D48" r:id="rId15" xr:uid="{C5C3A334-54A6-104C-B7C7-EA0C433EEF21}"/>
+    <hyperlink ref="D2" r:id="rId16" xr:uid="{EE15BF1B-8447-2C4C-90C1-875980BBF402}"/>
+    <hyperlink ref="D3" r:id="rId17" xr:uid="{8FDE8AA2-FC03-104D-9E2E-1B5E8649D799}"/>
+    <hyperlink ref="D4" r:id="rId18" xr:uid="{38BBE05D-C1EF-B24B-843B-567E0DC9F8B2}"/>
+    <hyperlink ref="D5" r:id="rId19" xr:uid="{7768D9E2-DE24-2B48-9EDB-AB606DCE01E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
